--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3166.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3166.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dwayne John Bravo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/04/2004</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2210</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>24/04/2004</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2213</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2222</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2223</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/05/2004</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2224</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>26/06/2004</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2229</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/06/2004</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2233</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>06/07/2004</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2235</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>08/07/2004</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2236</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2237</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>15/09/2004</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2271</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2274</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>22/09/2004</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2277</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2278</t>
+          <t>2278</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2302</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2306</t>
+          <t>2306</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2310</t>
+          <t>2310</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2316</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2339</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2340</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2341</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2342</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2343</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2344</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2345</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2080,7 +2136,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2346</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2188,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2441</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2445</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2236,7 +2292,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2288,7 +2344,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2470</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2328,7 +2384,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>10/05/2006</t>
@@ -2336,7 +2391,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2473</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2388,7 +2443,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2475</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2440,7 +2495,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2476</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2492,7 +2547,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2477</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2544,7 +2599,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2596,7 +2651,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2483</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2648,7 +2703,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2484</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2700,7 +2755,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2516</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2740,7 +2795,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>14/09/2006</t>
@@ -2748,7 +2802,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2517</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2800,7 +2854,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2521</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2852,7 +2906,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2523</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2904,7 +2958,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2526</t>
+          <t>2526</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2944,7 +2998,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>08/10/2006</t>
@@ -2952,7 +3005,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2528</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2992,7 +3045,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>11/10/2006</t>
@@ -3000,7 +3052,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2530</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3052,7 +3104,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2532</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3092,7 +3144,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>18/10/2006</t>
@@ -3100,7 +3151,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2536</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3152,7 +3203,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2541</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3204,7 +3255,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3256,7 +3307,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2546</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3308,7 +3359,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2547</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3360,7 +3411,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2587</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3412,7 +3463,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2592</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3464,7 +3515,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2594</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3516,7 +3567,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3568,7 +3619,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2650</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3608,7 +3659,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>23/03/2007</t>
@@ -3616,7 +3666,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3668,7 +3718,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2662</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3720,7 +3770,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2664</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3772,7 +3822,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2667</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3824,7 +3874,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2674</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3876,7 +3926,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3928,7 +3978,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3980,7 +4030,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4020,7 +4070,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>04/07/2007</t>
@@ -4028,7 +4077,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4080,7 +4129,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4132,7 +4181,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2760</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4184,7 +4233,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2762</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4236,7 +4285,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2764</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4288,7 +4337,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2765</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4340,7 +4389,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2773</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4392,7 +4441,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2776</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4444,7 +4493,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2778</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4496,7 +4545,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2780</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4548,7 +4597,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2783</t>
+          <t>2783</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4600,7 +4649,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2809</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4652,7 +4701,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2811</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4692,7 +4741,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>15/04/2008</t>
@@ -4700,7 +4748,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2813</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4752,7 +4800,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4804,7 +4852,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2831</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4856,7 +4904,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2836</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4908,7 +4956,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2846</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4960,7 +5008,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2848</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5012,7 +5060,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5064,7 +5112,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5104,7 +5152,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>27/03/2009</t>
@@ -5112,7 +5159,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5164,7 +5211,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5216,7 +5263,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5268,7 +5315,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5320,7 +5367,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5372,7 +5419,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5412,7 +5459,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>28/06/2009</t>
@@ -5420,7 +5466,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5472,7 +5518,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5512,7 +5558,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -5520,7 +5565,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5572,7 +5617,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5624,7 +5669,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5676,7 +5721,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5728,7 +5773,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5780,7 +5825,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5832,7 +5877,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5884,7 +5929,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5936,7 +5981,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5988,7 +6033,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6040,7 +6085,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6092,7 +6137,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6144,7 +6189,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6196,7 +6241,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6248,7 +6293,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6300,7 +6345,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6340,7 +6385,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>05/05/2011</t>
@@ -6348,7 +6392,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6400,7 +6444,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6452,7 +6496,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6504,7 +6548,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6556,7 +6600,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6608,7 +6652,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6660,7 +6704,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6712,7 +6756,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6764,7 +6808,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6816,7 +6860,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6856,7 +6900,6 @@
           <t>125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -6864,7 +6907,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6916,7 +6959,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6968,7 +7011,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7020,7 +7063,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7072,7 +7115,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7124,7 +7167,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7176,7 +7219,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7228,7 +7271,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7280,7 +7323,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7332,7 +7375,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7384,7 +7427,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7424,7 +7467,6 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>24/02/2013</t>
@@ -7432,7 +7474,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7484,7 +7526,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3481</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7536,7 +7578,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7588,7 +7630,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7640,7 +7682,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7692,7 +7734,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7744,7 +7786,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7796,7 +7838,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7848,7 +7890,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7900,7 +7942,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7952,7 +7994,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8004,7 +8046,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8056,7 +8098,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8108,7 +8150,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8160,7 +8202,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8212,7 +8254,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8264,7 +8306,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8316,7 +8358,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8368,7 +8410,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8420,7 +8462,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8472,7 +8514,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8524,7 +8566,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8576,7 +8618,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8628,7 +8670,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8680,7 +8722,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8732,7 +8774,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8784,7 +8826,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8836,7 +8878,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8888,7 +8930,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8927,7 +8969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8949,7 +8991,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8986,7 +9028,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2210</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9023,7 +9065,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9060,7 +9102,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9097,7 +9139,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2222</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9134,7 +9176,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2223</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9171,7 +9213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2224</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9208,7 +9250,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2229</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9245,7 +9287,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9282,7 +9324,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9319,7 +9361,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2233</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9356,7 +9398,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2235</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9393,7 +9435,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2237</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9430,7 +9472,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2271</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9467,7 +9509,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2274</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9504,7 +9546,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2277</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9541,7 +9583,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2278</t>
+          <t>2278</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9578,7 +9620,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2302</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9615,7 +9657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2310</t>
+          <t>2310</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9652,7 +9694,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9689,7 +9731,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2316</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9726,7 +9768,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2339</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9763,7 +9805,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2340</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9800,7 +9842,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2341</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9837,7 +9879,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2342</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9874,7 +9916,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2343</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9911,7 +9953,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2344</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9948,7 +9990,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2345</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9985,7 +10027,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2346</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -10022,7 +10064,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -10059,7 +10101,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2470</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10096,7 +10138,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2473</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -10133,7 +10175,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2475</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -10170,7 +10212,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2476</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -10207,7 +10249,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2477</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -10244,7 +10286,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -10281,7 +10323,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2483</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -10318,7 +10360,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2484</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -10355,7 +10397,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2516</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -10392,7 +10434,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2517</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10429,7 +10471,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2521</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10466,7 +10508,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2523</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10503,7 +10545,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2526</t>
+          <t>2526</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10540,7 +10582,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2528</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10577,7 +10619,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2530</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10614,7 +10656,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2536</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10651,7 +10693,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2541</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10688,7 +10730,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10725,7 +10767,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2546</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10762,7 +10804,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2587</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10799,7 +10841,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2592</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10836,7 +10878,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2594</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10873,7 +10915,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10910,7 +10952,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10947,7 +10989,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2662</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10984,7 +11026,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2664</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11021,7 +11063,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2667</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11058,7 +11100,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2674</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11095,7 +11137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11132,7 +11174,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11169,7 +11211,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11206,7 +11248,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11243,7 +11285,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11280,7 +11322,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2760</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11317,7 +11359,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2762</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11354,7 +11396,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2764</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11391,7 +11433,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2765</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -11428,7 +11470,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2773</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11465,7 +11507,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2780</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11502,7 +11544,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2783</t>
+          <t>2783</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -11539,7 +11581,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2809</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -11576,7 +11618,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2811</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -11613,7 +11655,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2813</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -11650,7 +11692,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -11687,7 +11729,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2831</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -11724,7 +11766,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2836</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11761,7 +11803,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2846</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -11798,7 +11840,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2848</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -11835,7 +11877,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -11872,7 +11914,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -11909,7 +11951,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -11946,7 +11988,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11983,7 +12025,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -12020,7 +12062,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -12057,7 +12099,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -12094,7 +12136,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -12131,7 +12173,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -12168,7 +12210,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -12205,7 +12247,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -12242,7 +12284,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -12279,7 +12321,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12316,7 +12358,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -12353,7 +12395,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -12390,7 +12432,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12427,7 +12469,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12464,7 +12506,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12501,7 +12543,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12538,7 +12580,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12575,7 +12617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12612,7 +12654,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -12649,7 +12691,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -12686,7 +12728,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12723,7 +12765,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12760,7 +12802,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12797,7 +12839,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12834,7 +12876,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12871,7 +12913,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12908,7 +12950,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12945,7 +12987,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12982,7 +13024,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -13019,7 +13061,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13056,7 +13098,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13093,7 +13135,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13130,7 +13172,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13167,7 +13209,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13204,7 +13246,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13241,7 +13283,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13278,7 +13320,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13315,7 +13357,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13352,7 +13394,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -13389,7 +13431,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13426,7 +13468,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13463,7 +13505,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13500,7 +13542,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13537,7 +13579,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3481</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13574,7 +13616,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13611,7 +13653,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13648,7 +13690,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13685,7 +13727,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -13722,7 +13764,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -13759,7 +13801,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -13796,7 +13838,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -13833,7 +13875,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -13870,7 +13912,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -13907,7 +13949,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -13944,7 +13986,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -13981,7 +14023,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14018,7 +14060,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14055,7 +14097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14092,7 +14134,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14129,7 +14171,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14166,7 +14208,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -14203,7 +14245,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -14240,7 +14282,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -14277,7 +14319,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -14314,7 +14356,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -14351,7 +14393,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -14388,7 +14430,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -14425,7 +14467,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -14462,7 +14504,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -14499,7 +14541,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -14525,6 +14567,555 @@
       <c r="G151" t="inlineStr">
         <is>
           <t>0/51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.68%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3535</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3538</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19.83%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.09%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3617</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.07%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.34%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.58%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.28%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.30%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3166.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3166.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14657,10 +14658,6 @@
           <t>3535</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14703,10 +14700,6 @@
           <t>3580</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14719,301 +14712,630 @@
           <t>3581</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.09%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3617</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.07%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.34%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.58%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.28%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.30%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3532</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3535</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3538</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3583</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3597</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.09%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3598</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3617</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.07%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
+          <t>3617</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>32.34%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12.58%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9.71%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3655</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.28%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3657</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.43%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -15025,13 +15347,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15039,27 +15354,14 @@
           <t>3678</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.30%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -15069,27 +15371,14 @@
           <t>3680</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>6</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -15099,25 +15388,12 @@
           <t>3683</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3166.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3166.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/04/2004</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>24/04/2004</t>
@@ -912,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/05/2004</t>
@@ -959,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>26/06/2004</t>
@@ -1006,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/06/2004</t>
@@ -1157,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>06/07/2004</t>
@@ -1204,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>08/07/2004</t>
@@ -1303,6 +1308,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>15/09/2004</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>22/09/2004</t>
@@ -2385,6 +2392,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>10/05/2006</t>
@@ -2796,6 +2804,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>14/09/2006</t>
@@ -2999,6 +3008,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>08/10/2006</t>
@@ -3046,6 +3056,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>11/10/2006</t>
@@ -3145,6 +3156,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>18/10/2006</t>
@@ -3660,6 +3672,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>23/03/2007</t>
@@ -4071,6 +4084,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>04/07/2007</t>
@@ -4742,6 +4756,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>15/04/2008</t>
@@ -5153,6 +5168,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>27/03/2009</t>
@@ -5460,6 +5476,7 @@
           <t>97</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>28/06/2009</t>
@@ -5559,6 +5576,7 @@
           <t>99</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -6386,6 +6404,7 @@
           <t>115</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>05/05/2011</t>
@@ -6901,6 +6920,7 @@
           <t>125</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -7468,6 +7488,7 @@
           <t>136</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>24/02/2013</t>
@@ -14574,828 +14595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.68%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3535</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3538</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19.83%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3580</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3583</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3596</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3597</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.09%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3598</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3617</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.07%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>32.34%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12.58%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9.71%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3655</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.28%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3657</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.43%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3661</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3678</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.30%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3683</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3532</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3535</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3538</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3580</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3583</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3596</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3597</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3598</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3617</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3655</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3661</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3678</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3683</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>